--- a/testdata/SSG_SUBJECT_NAMES.xlsx
+++ b/testdata/SSG_SUBJECT_NAMES.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D965D49-F30B-425A-A1BE-2FD213A6F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE04F3D3-6765-4B37-AC97-E99E8A206D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>subject_name_ID</t>
+    <t>subject_name_id</t>
   </si>
   <si>
     <t>name</t>
@@ -442,7 +442,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
